--- a/GBP Bonds/Service Companies/Financials/Shaftesbury.xlsx
+++ b/GBP Bonds/Service Companies/Financials/Shaftesbury.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renea\OneDrive\Documents\University of Bath\13. Dissertation\Data\GBP Bonds\Service Companies\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1C94FB-E758-46D3-A02B-04314C331319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1239685-5C90-49A2-BF5C-A2D9CEEBFEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4884" yWindow="3324" windowWidth="17280" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Summary" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,25 @@
     <sheet name="Balance Sheet" sheetId="4" r:id="rId3"/>
     <sheet name="Income Statement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="452">
   <si>
     <t>Company Fundamentals - Financial Summary</t>
   </si>
@@ -1374,6 +1387,12 @@
   <si>
     <t>Shaftesbury PLC</t>
   </si>
+  <si>
+    <t>Quick Ratio</t>
+  </si>
+  <si>
+    <t>Working Capital to Total Assets</t>
+  </si>
 </sst>
 </file>
 
@@ -1471,7 +1490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1518,11 +1537,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD5D8DB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD5D8DB"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1604,11 +1634,14 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1917,8 +1950,8 @@
   </sheetPr>
   <dimension ref="A1:AT63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2053,139 +2086,139 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="R11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="31" t="s">
+      <c r="U11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="V11" s="31" t="s">
+      <c r="V11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="W11" s="31" t="s">
+      <c r="W11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="X11" s="31" t="s">
+      <c r="X11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="31" t="s">
+      <c r="Y11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="31" t="s">
+      <c r="Z11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="31" t="s">
+      <c r="AA11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AB11" s="31" t="s">
+      <c r="AB11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AC11" s="31" t="s">
+      <c r="AC11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AD11" s="31" t="s">
+      <c r="AD11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AE11" s="31" t="s">
+      <c r="AE11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AF11" s="31" t="s">
+      <c r="AF11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AG11" s="31" t="s">
+      <c r="AG11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="31" t="s">
+      <c r="AH11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" s="31" t="s">
+      <c r="AI11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AJ11" s="31" t="s">
+      <c r="AJ11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AK11" s="31" t="s">
+      <c r="AK11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AL11" s="31" t="s">
+      <c r="AL11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AM11" s="31" t="s">
+      <c r="AM11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AN11" s="31" t="s">
+      <c r="AN11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AO11" s="31" t="s">
+      <c r="AO11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AP11" s="31" t="s">
+      <c r="AP11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AQ11" s="31" t="s">
+      <c r="AQ11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AR11" s="31" t="s">
+      <c r="AR11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AS11" s="31" t="s">
+      <c r="AS11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AT11" s="31" t="s">
+      <c r="AT11" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2193,139 +2226,139 @@
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>44651</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>44469</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>44286</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>44104</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>43921</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="31">
         <v>43738</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <v>43555</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="31">
         <v>43373</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="31">
         <v>43190</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="31">
         <v>43008</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="31">
         <v>42825</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="31">
         <v>42643</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="31">
         <v>42460</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="31">
         <v>42277</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="31">
         <v>42094</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="31">
         <v>41912</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="31">
         <v>41729</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="31">
         <v>41547</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="31">
         <v>41364</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="31">
         <v>41182</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="31">
         <v>40999</v>
       </c>
-      <c r="W12" s="32">
+      <c r="W12" s="31">
         <v>40816</v>
       </c>
-      <c r="X12" s="32">
+      <c r="X12" s="31">
         <v>40633</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="31">
         <v>40451</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="Z12" s="31">
         <v>40268</v>
       </c>
-      <c r="AA12" s="32">
+      <c r="AA12" s="31">
         <v>40086</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AB12" s="31">
         <v>39903</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC12" s="31">
         <v>39721</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD12" s="31">
         <v>39538</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AE12" s="31">
         <v>39355</v>
       </c>
-      <c r="AF12" s="32">
+      <c r="AF12" s="31">
         <v>39172</v>
       </c>
-      <c r="AG12" s="32">
+      <c r="AG12" s="31">
         <v>38990</v>
       </c>
-      <c r="AH12" s="32">
+      <c r="AH12" s="31">
         <v>38807</v>
       </c>
-      <c r="AI12" s="32">
+      <c r="AI12" s="31">
         <v>38625</v>
       </c>
-      <c r="AJ12" s="32">
+      <c r="AJ12" s="31">
         <v>38442</v>
       </c>
-      <c r="AK12" s="32">
+      <c r="AK12" s="31">
         <v>38260</v>
       </c>
-      <c r="AL12" s="32">
+      <c r="AL12" s="31">
         <v>38077</v>
       </c>
-      <c r="AM12" s="32">
+      <c r="AM12" s="31">
         <v>37894</v>
       </c>
-      <c r="AN12" s="32">
+      <c r="AN12" s="31">
         <v>37711</v>
       </c>
-      <c r="AO12" s="32">
+      <c r="AO12" s="31">
         <v>37529</v>
       </c>
-      <c r="AP12" s="32">
+      <c r="AP12" s="31">
         <v>37346</v>
       </c>
-      <c r="AQ12" s="32">
+      <c r="AQ12" s="31">
         <v>37164</v>
       </c>
-      <c r="AR12" s="32">
+      <c r="AR12" s="31">
         <v>36981</v>
       </c>
-      <c r="AS12" s="32">
+      <c r="AS12" s="31">
         <v>36799</v>
       </c>
-      <c r="AT12" s="32">
+      <c r="AT12" s="31">
         <v>36616</v>
       </c>
     </row>
@@ -2333,139 +2366,139 @@
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="32" t="s">
+      <c r="O13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="32" t="s">
+      <c r="S13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="T13" s="32" t="s">
+      <c r="T13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="U13" s="32" t="s">
+      <c r="U13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="32" t="s">
+      <c r="V13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="W13" s="32" t="s">
+      <c r="W13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="X13" s="32" t="s">
+      <c r="X13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" s="32" t="s">
+      <c r="Y13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AA13" s="32" t="s">
+      <c r="AA13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AB13" s="32" t="s">
+      <c r="AB13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AC13" s="32" t="s">
+      <c r="AC13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AD13" s="32" t="s">
+      <c r="AD13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AE13" s="32" t="s">
+      <c r="AE13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AF13" s="32" t="s">
+      <c r="AF13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AG13" s="32" t="s">
+      <c r="AG13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AH13" s="32" t="s">
+      <c r="AH13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AI13" s="32" t="s">
+      <c r="AI13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AJ13" s="32" t="s">
+      <c r="AJ13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AK13" s="32" t="s">
+      <c r="AK13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AL13" s="32" t="s">
+      <c r="AL13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AM13" s="32" t="s">
+      <c r="AM13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AN13" s="32" t="s">
+      <c r="AN13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AO13" s="32" t="s">
+      <c r="AO13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AP13" s="32" t="s">
+      <c r="AP13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AQ13" s="32" t="s">
+      <c r="AQ13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AR13" s="32" t="s">
+      <c r="AR13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AS13" s="32" t="s">
+      <c r="AS13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AT13" s="32" t="s">
+      <c r="AT13" s="31" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8487,77 +8520,24 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="AT12"/>
-    <mergeCell ref="AT13"/>
-    <mergeCell ref="AO12"/>
-    <mergeCell ref="AO13"/>
-    <mergeCell ref="AP12"/>
-    <mergeCell ref="AP13"/>
-    <mergeCell ref="AQ12"/>
-    <mergeCell ref="AQ13"/>
-    <mergeCell ref="AR12"/>
-    <mergeCell ref="AR13"/>
-    <mergeCell ref="AS12"/>
-    <mergeCell ref="AS13"/>
-    <mergeCell ref="AJ12"/>
-    <mergeCell ref="AJ13"/>
-    <mergeCell ref="AK12"/>
-    <mergeCell ref="AK13"/>
-    <mergeCell ref="AL12"/>
-    <mergeCell ref="AL13"/>
-    <mergeCell ref="AM12"/>
-    <mergeCell ref="AM13"/>
-    <mergeCell ref="AN12"/>
-    <mergeCell ref="AN13"/>
-    <mergeCell ref="AE12"/>
-    <mergeCell ref="AE13"/>
-    <mergeCell ref="AF12"/>
-    <mergeCell ref="AF13"/>
-    <mergeCell ref="AG12"/>
-    <mergeCell ref="AG13"/>
-    <mergeCell ref="AH12"/>
-    <mergeCell ref="AH13"/>
-    <mergeCell ref="AI12"/>
-    <mergeCell ref="AI13"/>
-    <mergeCell ref="Z12"/>
-    <mergeCell ref="Z13"/>
-    <mergeCell ref="AA12"/>
-    <mergeCell ref="AA13"/>
-    <mergeCell ref="AB12"/>
-    <mergeCell ref="AB13"/>
-    <mergeCell ref="AC12"/>
-    <mergeCell ref="AC13"/>
-    <mergeCell ref="AD12"/>
-    <mergeCell ref="AD13"/>
-    <mergeCell ref="U12"/>
-    <mergeCell ref="U13"/>
-    <mergeCell ref="V12"/>
-    <mergeCell ref="V13"/>
-    <mergeCell ref="W12"/>
-    <mergeCell ref="W13"/>
-    <mergeCell ref="X12"/>
-    <mergeCell ref="X13"/>
-    <mergeCell ref="Y12"/>
-    <mergeCell ref="Y13"/>
-    <mergeCell ref="P12"/>
-    <mergeCell ref="P13"/>
-    <mergeCell ref="Q12"/>
-    <mergeCell ref="Q13"/>
-    <mergeCell ref="R12"/>
-    <mergeCell ref="R13"/>
-    <mergeCell ref="S12"/>
-    <mergeCell ref="S13"/>
-    <mergeCell ref="T12"/>
-    <mergeCell ref="T13"/>
-    <mergeCell ref="K13"/>
-    <mergeCell ref="L12"/>
-    <mergeCell ref="L13"/>
-    <mergeCell ref="M12"/>
-    <mergeCell ref="M13"/>
-    <mergeCell ref="N12"/>
-    <mergeCell ref="N13"/>
-    <mergeCell ref="O12"/>
-    <mergeCell ref="O13"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AK11:AL11"/>
     <mergeCell ref="AM11:AN11"/>
     <mergeCell ref="AO11:AP11"/>
@@ -8582,24 +8562,77 @@
     <mergeCell ref="J12"/>
     <mergeCell ref="J13"/>
     <mergeCell ref="K12"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="N12"/>
+    <mergeCell ref="N13"/>
+    <mergeCell ref="O12"/>
+    <mergeCell ref="O13"/>
+    <mergeCell ref="P12"/>
+    <mergeCell ref="P13"/>
+    <mergeCell ref="Q12"/>
+    <mergeCell ref="Q13"/>
+    <mergeCell ref="R12"/>
+    <mergeCell ref="R13"/>
+    <mergeCell ref="S12"/>
+    <mergeCell ref="S13"/>
+    <mergeCell ref="T12"/>
+    <mergeCell ref="T13"/>
+    <mergeCell ref="U12"/>
+    <mergeCell ref="U13"/>
+    <mergeCell ref="V12"/>
+    <mergeCell ref="V13"/>
+    <mergeCell ref="W12"/>
+    <mergeCell ref="W13"/>
+    <mergeCell ref="X12"/>
+    <mergeCell ref="X13"/>
+    <mergeCell ref="Y12"/>
+    <mergeCell ref="Y13"/>
+    <mergeCell ref="Z12"/>
+    <mergeCell ref="Z13"/>
+    <mergeCell ref="AA12"/>
+    <mergeCell ref="AA13"/>
+    <mergeCell ref="AB12"/>
+    <mergeCell ref="AB13"/>
+    <mergeCell ref="AC12"/>
+    <mergeCell ref="AC13"/>
+    <mergeCell ref="AD12"/>
+    <mergeCell ref="AD13"/>
+    <mergeCell ref="AE12"/>
+    <mergeCell ref="AE13"/>
+    <mergeCell ref="AF12"/>
+    <mergeCell ref="AF13"/>
+    <mergeCell ref="AG12"/>
+    <mergeCell ref="AG13"/>
+    <mergeCell ref="AH12"/>
+    <mergeCell ref="AH13"/>
+    <mergeCell ref="AI12"/>
+    <mergeCell ref="AI13"/>
+    <mergeCell ref="AJ12"/>
+    <mergeCell ref="AJ13"/>
+    <mergeCell ref="AK12"/>
+    <mergeCell ref="AK13"/>
+    <mergeCell ref="AL12"/>
+    <mergeCell ref="AL13"/>
+    <mergeCell ref="AM12"/>
+    <mergeCell ref="AM13"/>
+    <mergeCell ref="AN12"/>
+    <mergeCell ref="AN13"/>
+    <mergeCell ref="AT12"/>
+    <mergeCell ref="AT13"/>
+    <mergeCell ref="AO12"/>
+    <mergeCell ref="AO13"/>
+    <mergeCell ref="AP12"/>
+    <mergeCell ref="AP13"/>
+    <mergeCell ref="AQ12"/>
+    <mergeCell ref="AQ13"/>
+    <mergeCell ref="AR12"/>
+    <mergeCell ref="AR13"/>
+    <mergeCell ref="AS12"/>
+    <mergeCell ref="AS13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -8748,136 +8781,136 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="R11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="31" t="s">
+      <c r="U11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="V11" s="31" t="s">
+      <c r="V11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="W11" s="31" t="s">
+      <c r="W11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="X11" s="31" t="s">
+      <c r="X11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="31" t="s">
+      <c r="Y11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="31" t="s">
+      <c r="Z11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="31" t="s">
+      <c r="AA11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AB11" s="31" t="s">
+      <c r="AB11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AC11" s="31" t="s">
+      <c r="AC11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AD11" s="31" t="s">
+      <c r="AD11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AE11" s="31" t="s">
+      <c r="AE11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AF11" s="31" t="s">
+      <c r="AF11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AG11" s="31" t="s">
+      <c r="AG11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="31" t="s">
+      <c r="AH11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" s="31" t="s">
+      <c r="AI11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AJ11" s="31" t="s">
+      <c r="AJ11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AK11" s="31" t="s">
+      <c r="AK11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AL11" s="31" t="s">
+      <c r="AL11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AM11" s="31" t="s">
+      <c r="AM11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AN11" s="31" t="s">
+      <c r="AN11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AO11" s="31" t="s">
+      <c r="AO11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AP11" s="31" t="s">
+      <c r="AP11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AQ11" s="31" t="s">
+      <c r="AQ11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AR11" s="31" t="s">
+      <c r="AR11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AS11" s="31" t="s">
+      <c r="AS11" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8885,136 +8918,136 @@
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>44651</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>44469</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>44286</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>44104</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>43921</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="31">
         <v>43738</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <v>43555</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="31">
         <v>43373</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="31">
         <v>43190</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="31">
         <v>43008</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="31">
         <v>42825</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="31">
         <v>42643</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="31">
         <v>42460</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="31">
         <v>42277</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="31">
         <v>42094</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="31">
         <v>41912</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="31">
         <v>41729</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="31">
         <v>41547</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="31">
         <v>41364</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="31">
         <v>41182</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="31">
         <v>40999</v>
       </c>
-      <c r="W12" s="32">
+      <c r="W12" s="31">
         <v>40816</v>
       </c>
-      <c r="X12" s="32">
+      <c r="X12" s="31">
         <v>40633</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="31">
         <v>40451</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="Z12" s="31">
         <v>40268</v>
       </c>
-      <c r="AA12" s="32">
+      <c r="AA12" s="31">
         <v>40086</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AB12" s="31">
         <v>39903</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC12" s="31">
         <v>39721</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD12" s="31">
         <v>39538</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AE12" s="31">
         <v>39355</v>
       </c>
-      <c r="AF12" s="32">
+      <c r="AF12" s="31">
         <v>39172</v>
       </c>
-      <c r="AG12" s="32">
+      <c r="AG12" s="31">
         <v>38990</v>
       </c>
-      <c r="AH12" s="32">
+      <c r="AH12" s="31">
         <v>38807</v>
       </c>
-      <c r="AI12" s="32">
+      <c r="AI12" s="31">
         <v>38625</v>
       </c>
-      <c r="AJ12" s="32">
+      <c r="AJ12" s="31">
         <v>38442</v>
       </c>
-      <c r="AK12" s="32">
+      <c r="AK12" s="31">
         <v>38260</v>
       </c>
-      <c r="AL12" s="32">
+      <c r="AL12" s="31">
         <v>38077</v>
       </c>
-      <c r="AM12" s="32">
+      <c r="AM12" s="31">
         <v>37894</v>
       </c>
-      <c r="AN12" s="32">
+      <c r="AN12" s="31">
         <v>37711</v>
       </c>
-      <c r="AO12" s="32">
+      <c r="AO12" s="31">
         <v>37529</v>
       </c>
-      <c r="AP12" s="32">
+      <c r="AP12" s="31">
         <v>37346</v>
       </c>
-      <c r="AQ12" s="32">
+      <c r="AQ12" s="31">
         <v>37164</v>
       </c>
-      <c r="AR12" s="32">
+      <c r="AR12" s="31">
         <v>36981</v>
       </c>
-      <c r="AS12" s="32">
+      <c r="AS12" s="31">
         <v>36616</v>
       </c>
     </row>
@@ -9022,136 +9055,136 @@
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="32" t="s">
+      <c r="O13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="32" t="s">
+      <c r="S13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="T13" s="32" t="s">
+      <c r="T13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="U13" s="32" t="s">
+      <c r="U13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="32" t="s">
+      <c r="V13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="W13" s="32" t="s">
+      <c r="W13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="X13" s="32" t="s">
+      <c r="X13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" s="32" t="s">
+      <c r="Y13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AA13" s="32" t="s">
+      <c r="AA13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AB13" s="32" t="s">
+      <c r="AB13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AC13" s="32" t="s">
+      <c r="AC13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AD13" s="32" t="s">
+      <c r="AD13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AE13" s="32" t="s">
+      <c r="AE13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AF13" s="32" t="s">
+      <c r="AF13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AG13" s="32" t="s">
+      <c r="AG13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AH13" s="32" t="s">
+      <c r="AH13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AI13" s="32" t="s">
+      <c r="AI13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AJ13" s="32" t="s">
+      <c r="AJ13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AK13" s="32" t="s">
+      <c r="AK13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AL13" s="32" t="s">
+      <c r="AL13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AM13" s="32" t="s">
+      <c r="AM13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AN13" s="32" t="s">
+      <c r="AN13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AO13" s="32" t="s">
+      <c r="AO13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AP13" s="32" t="s">
+      <c r="AP13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AQ13" s="32" t="s">
+      <c r="AQ13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AR13" s="32" t="s">
+      <c r="AR13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AS13" s="32" t="s">
+      <c r="AS13" s="31" t="s">
         <v>42</v>
       </c>
     </row>
@@ -16738,75 +16771,24 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="AO12"/>
-    <mergeCell ref="AO13"/>
-    <mergeCell ref="AP12"/>
-    <mergeCell ref="AP13"/>
-    <mergeCell ref="AQ12"/>
-    <mergeCell ref="AQ13"/>
-    <mergeCell ref="AR12"/>
-    <mergeCell ref="AR13"/>
-    <mergeCell ref="AS12"/>
-    <mergeCell ref="AS13"/>
-    <mergeCell ref="AJ12"/>
-    <mergeCell ref="AJ13"/>
-    <mergeCell ref="AK12"/>
-    <mergeCell ref="AK13"/>
-    <mergeCell ref="AL12"/>
-    <mergeCell ref="AL13"/>
-    <mergeCell ref="AM12"/>
-    <mergeCell ref="AM13"/>
-    <mergeCell ref="AN12"/>
-    <mergeCell ref="AN13"/>
-    <mergeCell ref="AE12"/>
-    <mergeCell ref="AE13"/>
-    <mergeCell ref="AF12"/>
-    <mergeCell ref="AF13"/>
-    <mergeCell ref="AG12"/>
-    <mergeCell ref="AG13"/>
-    <mergeCell ref="AH12"/>
-    <mergeCell ref="AH13"/>
-    <mergeCell ref="AI12"/>
-    <mergeCell ref="AI13"/>
-    <mergeCell ref="Z12"/>
-    <mergeCell ref="Z13"/>
-    <mergeCell ref="AA12"/>
-    <mergeCell ref="AA13"/>
-    <mergeCell ref="AB12"/>
-    <mergeCell ref="AB13"/>
-    <mergeCell ref="AC12"/>
-    <mergeCell ref="AC13"/>
-    <mergeCell ref="AD12"/>
-    <mergeCell ref="AD13"/>
-    <mergeCell ref="U12"/>
-    <mergeCell ref="U13"/>
-    <mergeCell ref="V12"/>
-    <mergeCell ref="V13"/>
-    <mergeCell ref="W12"/>
-    <mergeCell ref="W13"/>
-    <mergeCell ref="X12"/>
-    <mergeCell ref="X13"/>
-    <mergeCell ref="Y12"/>
-    <mergeCell ref="Y13"/>
-    <mergeCell ref="P12"/>
-    <mergeCell ref="P13"/>
-    <mergeCell ref="Q12"/>
-    <mergeCell ref="Q13"/>
-    <mergeCell ref="R12"/>
-    <mergeCell ref="R13"/>
-    <mergeCell ref="S12"/>
-    <mergeCell ref="S13"/>
-    <mergeCell ref="T12"/>
-    <mergeCell ref="T13"/>
-    <mergeCell ref="K13"/>
-    <mergeCell ref="L12"/>
-    <mergeCell ref="L13"/>
-    <mergeCell ref="M12"/>
-    <mergeCell ref="M13"/>
-    <mergeCell ref="N12"/>
-    <mergeCell ref="N13"/>
-    <mergeCell ref="O12"/>
-    <mergeCell ref="O13"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AK11:AL11"/>
     <mergeCell ref="AM11:AN11"/>
     <mergeCell ref="AO11:AP11"/>
@@ -16831,24 +16813,75 @@
     <mergeCell ref="J12"/>
     <mergeCell ref="J13"/>
     <mergeCell ref="K12"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="N12"/>
+    <mergeCell ref="N13"/>
+    <mergeCell ref="O12"/>
+    <mergeCell ref="O13"/>
+    <mergeCell ref="P12"/>
+    <mergeCell ref="P13"/>
+    <mergeCell ref="Q12"/>
+    <mergeCell ref="Q13"/>
+    <mergeCell ref="R12"/>
+    <mergeCell ref="R13"/>
+    <mergeCell ref="S12"/>
+    <mergeCell ref="S13"/>
+    <mergeCell ref="T12"/>
+    <mergeCell ref="T13"/>
+    <mergeCell ref="U12"/>
+    <mergeCell ref="U13"/>
+    <mergeCell ref="V12"/>
+    <mergeCell ref="V13"/>
+    <mergeCell ref="W12"/>
+    <mergeCell ref="W13"/>
+    <mergeCell ref="X12"/>
+    <mergeCell ref="X13"/>
+    <mergeCell ref="Y12"/>
+    <mergeCell ref="Y13"/>
+    <mergeCell ref="Z12"/>
+    <mergeCell ref="Z13"/>
+    <mergeCell ref="AA12"/>
+    <mergeCell ref="AA13"/>
+    <mergeCell ref="AB12"/>
+    <mergeCell ref="AB13"/>
+    <mergeCell ref="AC12"/>
+    <mergeCell ref="AC13"/>
+    <mergeCell ref="AD12"/>
+    <mergeCell ref="AD13"/>
+    <mergeCell ref="AE12"/>
+    <mergeCell ref="AE13"/>
+    <mergeCell ref="AF12"/>
+    <mergeCell ref="AF13"/>
+    <mergeCell ref="AG12"/>
+    <mergeCell ref="AG13"/>
+    <mergeCell ref="AH12"/>
+    <mergeCell ref="AH13"/>
+    <mergeCell ref="AI12"/>
+    <mergeCell ref="AI13"/>
+    <mergeCell ref="AJ12"/>
+    <mergeCell ref="AJ13"/>
+    <mergeCell ref="AK12"/>
+    <mergeCell ref="AK13"/>
+    <mergeCell ref="AL12"/>
+    <mergeCell ref="AL13"/>
+    <mergeCell ref="AM12"/>
+    <mergeCell ref="AM13"/>
+    <mergeCell ref="AN12"/>
+    <mergeCell ref="AN13"/>
+    <mergeCell ref="AO12"/>
+    <mergeCell ref="AO13"/>
+    <mergeCell ref="AP12"/>
+    <mergeCell ref="AP13"/>
+    <mergeCell ref="AQ12"/>
+    <mergeCell ref="AQ13"/>
+    <mergeCell ref="AR12"/>
+    <mergeCell ref="AR13"/>
+    <mergeCell ref="AS12"/>
+    <mergeCell ref="AS13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -16860,10 +16893,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT152"/>
+  <dimension ref="A1:AT154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -16998,139 +17031,139 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="R11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="31" t="s">
+      <c r="U11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="V11" s="31" t="s">
+      <c r="V11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="W11" s="31" t="s">
+      <c r="W11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="X11" s="31" t="s">
+      <c r="X11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="31" t="s">
+      <c r="Y11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="31" t="s">
+      <c r="Z11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="31" t="s">
+      <c r="AA11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AB11" s="31" t="s">
+      <c r="AB11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AC11" s="31" t="s">
+      <c r="AC11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AD11" s="31" t="s">
+      <c r="AD11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AE11" s="31" t="s">
+      <c r="AE11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AF11" s="31" t="s">
+      <c r="AF11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AG11" s="31" t="s">
+      <c r="AG11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="31" t="s">
+      <c r="AH11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" s="31" t="s">
+      <c r="AI11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AJ11" s="31" t="s">
+      <c r="AJ11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AK11" s="31" t="s">
+      <c r="AK11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AL11" s="31" t="s">
+      <c r="AL11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AM11" s="31" t="s">
+      <c r="AM11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AN11" s="31" t="s">
+      <c r="AN11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AO11" s="31" t="s">
+      <c r="AO11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AP11" s="31" t="s">
+      <c r="AP11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AQ11" s="31" t="s">
+      <c r="AQ11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AR11" s="31" t="s">
+      <c r="AR11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AS11" s="31" t="s">
+      <c r="AS11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AT11" s="31" t="s">
+      <c r="AT11" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -17138,139 +17171,139 @@
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>44651</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>44469</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>44286</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>44104</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>43921</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="31">
         <v>43738</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <v>43555</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="31">
         <v>43373</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="31">
         <v>43190</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="31">
         <v>43008</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="31">
         <v>42825</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="31">
         <v>42643</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="31">
         <v>42460</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="31">
         <v>42277</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="31">
         <v>42094</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="31">
         <v>41912</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="31">
         <v>41729</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="31">
         <v>41547</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="31">
         <v>41364</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="31">
         <v>41182</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="31">
         <v>40999</v>
       </c>
-      <c r="W12" s="32">
+      <c r="W12" s="31">
         <v>40816</v>
       </c>
-      <c r="X12" s="32">
+      <c r="X12" s="31">
         <v>40633</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="31">
         <v>40451</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="Z12" s="31">
         <v>40268</v>
       </c>
-      <c r="AA12" s="32">
+      <c r="AA12" s="31">
         <v>40086</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AB12" s="31">
         <v>39903</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC12" s="31">
         <v>39721</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD12" s="31">
         <v>39538</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AE12" s="31">
         <v>39355</v>
       </c>
-      <c r="AF12" s="32">
+      <c r="AF12" s="31">
         <v>39172</v>
       </c>
-      <c r="AG12" s="32">
+      <c r="AG12" s="31">
         <v>38990</v>
       </c>
-      <c r="AH12" s="32">
+      <c r="AH12" s="31">
         <v>38807</v>
       </c>
-      <c r="AI12" s="32">
+      <c r="AI12" s="31">
         <v>38625</v>
       </c>
-      <c r="AJ12" s="32">
+      <c r="AJ12" s="31">
         <v>38442</v>
       </c>
-      <c r="AK12" s="32">
+      <c r="AK12" s="31">
         <v>38260</v>
       </c>
-      <c r="AL12" s="32">
+      <c r="AL12" s="31">
         <v>38077</v>
       </c>
-      <c r="AM12" s="32">
+      <c r="AM12" s="31">
         <v>37894</v>
       </c>
-      <c r="AN12" s="32">
+      <c r="AN12" s="31">
         <v>37711</v>
       </c>
-      <c r="AO12" s="32">
+      <c r="AO12" s="31">
         <v>37529</v>
       </c>
-      <c r="AP12" s="32">
+      <c r="AP12" s="31">
         <v>37346</v>
       </c>
-      <c r="AQ12" s="32">
+      <c r="AQ12" s="31">
         <v>37164</v>
       </c>
-      <c r="AR12" s="32">
+      <c r="AR12" s="31">
         <v>36981</v>
       </c>
-      <c r="AS12" s="32">
+      <c r="AS12" s="31">
         <v>36799</v>
       </c>
-      <c r="AT12" s="32">
+      <c r="AT12" s="31">
         <v>36616</v>
       </c>
     </row>
@@ -17278,139 +17311,139 @@
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="32" t="s">
+      <c r="O13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="32" t="s">
+      <c r="S13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="T13" s="32" t="s">
+      <c r="T13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="U13" s="32" t="s">
+      <c r="U13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="32" t="s">
+      <c r="V13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="W13" s="32" t="s">
+      <c r="W13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="X13" s="32" t="s">
+      <c r="X13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" s="32" t="s">
+      <c r="Y13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AA13" s="32" t="s">
+      <c r="AA13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AB13" s="32" t="s">
+      <c r="AB13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AC13" s="32" t="s">
+      <c r="AC13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AD13" s="32" t="s">
+      <c r="AD13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AE13" s="32" t="s">
+      <c r="AE13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AF13" s="32" t="s">
+      <c r="AF13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AG13" s="32" t="s">
+      <c r="AG13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AH13" s="32" t="s">
+      <c r="AH13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AI13" s="32" t="s">
+      <c r="AI13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AJ13" s="32" t="s">
+      <c r="AJ13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AK13" s="32" t="s">
+      <c r="AK13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AL13" s="32" t="s">
+      <c r="AL13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AM13" s="32" t="s">
+      <c r="AM13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AN13" s="32" t="s">
+      <c r="AN13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AO13" s="32" t="s">
+      <c r="AO13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AP13" s="32" t="s">
+      <c r="AP13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AQ13" s="32" t="s">
+      <c r="AQ13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AR13" s="32" t="s">
+      <c r="AR13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AS13" s="32" t="s">
+      <c r="AS13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AT13" s="32" t="s">
+      <c r="AT13" s="31" t="s">
         <v>42</v>
       </c>
     </row>
@@ -31772,79 +31805,306 @@
         <v>0</v>
       </c>
     </row>
+    <row r="153" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A153" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="B153">
+        <v>6.2818428184281849</v>
+      </c>
+      <c r="C153">
+        <v>7.7341772151898729</v>
+      </c>
+      <c r="D153">
+        <v>12.972222222222221</v>
+      </c>
+      <c r="E153">
+        <v>5.8832487309644677</v>
+      </c>
+      <c r="F153">
+        <v>6.4058441558441563</v>
+      </c>
+      <c r="G153">
+        <v>1.860730593607306</v>
+      </c>
+      <c r="H153">
+        <v>2.9623893805309733</v>
+      </c>
+      <c r="I153">
+        <v>3.4264705882352948</v>
+      </c>
+      <c r="J153">
+        <v>5.0695876288659791</v>
+      </c>
+      <c r="K153">
+        <v>1.4543269230769231</v>
+      </c>
+      <c r="L153">
+        <v>0.56823821339950376</v>
+      </c>
+      <c r="M153">
+        <v>0.19490909090909092</v>
+      </c>
+      <c r="N153">
+        <v>0.57989690721649489</v>
+      </c>
+      <c r="O153">
+        <v>0.50271739130434789</v>
+      </c>
+      <c r="P153">
+        <v>0.64754098360655732</v>
+      </c>
+      <c r="Q153">
+        <v>0.63487738419618511</v>
+      </c>
+      <c r="R153">
+        <v>0.28482003129890454</v>
+      </c>
+      <c r="S153">
+        <v>0.59217877094972071</v>
+      </c>
+      <c r="T153">
+        <v>0.56484149855907784</v>
+      </c>
+      <c r="U153">
+        <v>0.66180758017492713</v>
+      </c>
+      <c r="V153">
+        <v>0.64</v>
+      </c>
+      <c r="W153">
+        <v>0.48895027624309384</v>
+      </c>
+      <c r="X153">
+        <v>0.49346405228758167</v>
+      </c>
+      <c r="Y153">
+        <v>0.48717948717948723</v>
+      </c>
+      <c r="Z153">
+        <v>0.52285714285714291</v>
+      </c>
+      <c r="AA153">
+        <v>0.56741573033707859</v>
+      </c>
+      <c r="AB153">
+        <v>0.62186788154897488</v>
+      </c>
+      <c r="AC153">
+        <v>0.48518762343647137</v>
+      </c>
+      <c r="AD153">
+        <v>0.45694050991501417</v>
+      </c>
+      <c r="AE153">
+        <v>0.50876150876150872</v>
+      </c>
+      <c r="AF153">
+        <v>0.54889298892988914</v>
+      </c>
+      <c r="AG153">
+        <v>1.0671674768007071</v>
+      </c>
+      <c r="AH153">
+        <v>0.56452991452991452</v>
+      </c>
+      <c r="AI153">
+        <v>0.68827586206896552</v>
+      </c>
+      <c r="AJ153">
+        <v>0.66121270452358039</v>
+      </c>
+      <c r="AK153">
+        <v>0.30048525569242257</v>
+      </c>
+      <c r="AL153">
+        <v>0.2392102846648301</v>
+      </c>
+      <c r="AM153">
+        <v>0.24819277108433735</v>
+      </c>
+      <c r="AN153">
+        <v>0.21277429467084638</v>
+      </c>
+      <c r="AO153">
+        <v>0.290266106442577</v>
+      </c>
+      <c r="AP153">
+        <v>0.29604772557792691</v>
+      </c>
+      <c r="AQ153">
+        <v>0.306176582038651</v>
+      </c>
+      <c r="AR153">
+        <v>0.28199748216533782</v>
+      </c>
+      <c r="AS153">
+        <v>0.31227343345416886</v>
+      </c>
+      <c r="AT153">
+        <v>0.38882088943288451</v>
+      </c>
+    </row>
+    <row r="154" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A154" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="B154">
+        <v>5.5444277527402212E-2</v>
+      </c>
+      <c r="C154">
+        <v>6.6763987368170172E-2</v>
+      </c>
+      <c r="D154">
+        <v>8.1635831308789625E-2</v>
+      </c>
+      <c r="E154">
+        <v>2.9272222719541666E-2</v>
+      </c>
+      <c r="F154">
+        <v>4.5358235894216427E-2</v>
+      </c>
+      <c r="G154">
+        <v>1.1322735452909417E-2</v>
+      </c>
+      <c r="H154">
+        <v>2.4132468689668826E-2</v>
+      </c>
+      <c r="I154">
+        <v>2.6849642004773272E-2</v>
+      </c>
+      <c r="J154">
+        <v>4.1571711201823146E-2</v>
+      </c>
+      <c r="K154">
+        <v>7.1481593489676389E-3</v>
+      </c>
+      <c r="L154">
+        <v>-3.8765381339755062E-3</v>
+      </c>
+      <c r="M154">
+        <v>-3.1017594775984033E-2</v>
+      </c>
+      <c r="N154">
+        <v>-3.9291505550704741E-3</v>
+      </c>
+      <c r="O154">
+        <v>-2.4012720251809063E-3</v>
+      </c>
+      <c r="P154">
+        <v>-3.7103103817338573E-3</v>
+      </c>
+      <c r="Q154">
+        <v>-4.6440836715579154E-3</v>
+      </c>
+      <c r="R154">
+        <v>-2.0622743682310471E-2</v>
+      </c>
+      <c r="S154">
+        <v>-4.9954368605600648E-3</v>
+      </c>
+      <c r="T154">
+        <v>-7.7955601445534334E-3</v>
+      </c>
+      <c r="U154">
+        <v>-6.2533692722371954E-3</v>
+      </c>
+      <c r="V154">
+        <v>-7.1339599139395322E-3</v>
+      </c>
+      <c r="W154">
+        <v>-1.0877873816663728E-2</v>
+      </c>
+      <c r="X154">
+        <v>-9.6754057428214742E-3</v>
+      </c>
+      <c r="Y154">
+        <v>-1.0653882008256758E-2</v>
+      </c>
+      <c r="Z154">
+        <v>-1.218978102189781E-2</v>
+      </c>
+      <c r="AA154">
+        <v>-1.251625487646294E-2</v>
+      </c>
+      <c r="AB154">
+        <v>-1.0361400661631609E-2</v>
+      </c>
+      <c r="AC154">
+        <v>-1.2790421904006411E-2</v>
+      </c>
+      <c r="AD154">
+        <v>-1.3968928231939163E-2</v>
+      </c>
+      <c r="AE154">
+        <v>-6.1380821840579004E-3</v>
+      </c>
+      <c r="AF154">
+        <v>-1.0863367421745989E-2</v>
+      </c>
+      <c r="AG154">
+        <v>1.1810962438031296E-3</v>
+      </c>
+      <c r="AH154">
+        <v>-9.6591339956017264E-3</v>
+      </c>
+      <c r="AI154">
+        <v>5.216709158658561E-3</v>
+      </c>
+      <c r="AJ154">
+        <v>-8.376863673683085E-3</v>
+      </c>
+      <c r="AK154">
+        <v>-1.6390120631287846E-2</v>
+      </c>
+      <c r="AL154">
+        <v>-1.6674979442729467E-2</v>
+      </c>
+      <c r="AM154">
+        <v>-2.1825531395396149E-2</v>
+      </c>
+      <c r="AN154">
+        <v>-2.3663064560820173E-2</v>
+      </c>
+      <c r="AO154">
+        <v>-2.6066584811662925E-2</v>
+      </c>
+      <c r="AP154">
+        <v>-2.3951059040803371E-2</v>
+      </c>
+      <c r="AQ154">
+        <v>-2.5660928724715766E-2</v>
+      </c>
+      <c r="AR154">
+        <v>-2.6093251291500769E-2</v>
+      </c>
+      <c r="AS154">
+        <v>-2.1530193943987044E-2</v>
+      </c>
+      <c r="AT154">
+        <v>-2.4399384591108131E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="AT12"/>
-    <mergeCell ref="AT13"/>
-    <mergeCell ref="AO12"/>
-    <mergeCell ref="AO13"/>
-    <mergeCell ref="AP12"/>
-    <mergeCell ref="AP13"/>
-    <mergeCell ref="AQ12"/>
-    <mergeCell ref="AQ13"/>
-    <mergeCell ref="AR12"/>
-    <mergeCell ref="AR13"/>
-    <mergeCell ref="AS12"/>
-    <mergeCell ref="AS13"/>
-    <mergeCell ref="AJ12"/>
-    <mergeCell ref="AJ13"/>
-    <mergeCell ref="AK12"/>
-    <mergeCell ref="AK13"/>
-    <mergeCell ref="AL12"/>
-    <mergeCell ref="AL13"/>
-    <mergeCell ref="AM12"/>
-    <mergeCell ref="AM13"/>
-    <mergeCell ref="AN12"/>
-    <mergeCell ref="AN13"/>
-    <mergeCell ref="AE12"/>
-    <mergeCell ref="AE13"/>
-    <mergeCell ref="AF12"/>
-    <mergeCell ref="AF13"/>
-    <mergeCell ref="AG12"/>
-    <mergeCell ref="AG13"/>
-    <mergeCell ref="AH12"/>
-    <mergeCell ref="AH13"/>
-    <mergeCell ref="AI12"/>
-    <mergeCell ref="AI13"/>
-    <mergeCell ref="Z12"/>
-    <mergeCell ref="Z13"/>
-    <mergeCell ref="AA12"/>
-    <mergeCell ref="AA13"/>
-    <mergeCell ref="AB12"/>
-    <mergeCell ref="AB13"/>
-    <mergeCell ref="AC12"/>
-    <mergeCell ref="AC13"/>
-    <mergeCell ref="AD12"/>
-    <mergeCell ref="AD13"/>
-    <mergeCell ref="U12"/>
-    <mergeCell ref="U13"/>
-    <mergeCell ref="V12"/>
-    <mergeCell ref="V13"/>
-    <mergeCell ref="W12"/>
-    <mergeCell ref="W13"/>
-    <mergeCell ref="X12"/>
-    <mergeCell ref="X13"/>
-    <mergeCell ref="Y12"/>
-    <mergeCell ref="Y13"/>
-    <mergeCell ref="P12"/>
-    <mergeCell ref="P13"/>
-    <mergeCell ref="Q12"/>
-    <mergeCell ref="Q13"/>
-    <mergeCell ref="R12"/>
-    <mergeCell ref="R13"/>
-    <mergeCell ref="S12"/>
-    <mergeCell ref="S13"/>
-    <mergeCell ref="T12"/>
-    <mergeCell ref="T13"/>
-    <mergeCell ref="K13"/>
-    <mergeCell ref="L12"/>
-    <mergeCell ref="L13"/>
-    <mergeCell ref="M12"/>
-    <mergeCell ref="M13"/>
-    <mergeCell ref="N12"/>
-    <mergeCell ref="N13"/>
-    <mergeCell ref="O12"/>
-    <mergeCell ref="O13"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AK11:AL11"/>
     <mergeCell ref="AM11:AN11"/>
     <mergeCell ref="AO11:AP11"/>
@@ -31869,24 +32129,77 @@
     <mergeCell ref="J12"/>
     <mergeCell ref="J13"/>
     <mergeCell ref="K12"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="N12"/>
+    <mergeCell ref="N13"/>
+    <mergeCell ref="O12"/>
+    <mergeCell ref="O13"/>
+    <mergeCell ref="P12"/>
+    <mergeCell ref="P13"/>
+    <mergeCell ref="Q12"/>
+    <mergeCell ref="Q13"/>
+    <mergeCell ref="R12"/>
+    <mergeCell ref="R13"/>
+    <mergeCell ref="S12"/>
+    <mergeCell ref="S13"/>
+    <mergeCell ref="T12"/>
+    <mergeCell ref="T13"/>
+    <mergeCell ref="U12"/>
+    <mergeCell ref="U13"/>
+    <mergeCell ref="V12"/>
+    <mergeCell ref="V13"/>
+    <mergeCell ref="W12"/>
+    <mergeCell ref="W13"/>
+    <mergeCell ref="X12"/>
+    <mergeCell ref="X13"/>
+    <mergeCell ref="Y12"/>
+    <mergeCell ref="Y13"/>
+    <mergeCell ref="Z12"/>
+    <mergeCell ref="Z13"/>
+    <mergeCell ref="AA12"/>
+    <mergeCell ref="AA13"/>
+    <mergeCell ref="AB12"/>
+    <mergeCell ref="AB13"/>
+    <mergeCell ref="AC12"/>
+    <mergeCell ref="AC13"/>
+    <mergeCell ref="AD12"/>
+    <mergeCell ref="AD13"/>
+    <mergeCell ref="AE12"/>
+    <mergeCell ref="AE13"/>
+    <mergeCell ref="AF12"/>
+    <mergeCell ref="AF13"/>
+    <mergeCell ref="AG12"/>
+    <mergeCell ref="AG13"/>
+    <mergeCell ref="AH12"/>
+    <mergeCell ref="AH13"/>
+    <mergeCell ref="AI12"/>
+    <mergeCell ref="AI13"/>
+    <mergeCell ref="AJ12"/>
+    <mergeCell ref="AJ13"/>
+    <mergeCell ref="AK12"/>
+    <mergeCell ref="AK13"/>
+    <mergeCell ref="AL12"/>
+    <mergeCell ref="AL13"/>
+    <mergeCell ref="AM12"/>
+    <mergeCell ref="AM13"/>
+    <mergeCell ref="AN12"/>
+    <mergeCell ref="AN13"/>
+    <mergeCell ref="AT12"/>
+    <mergeCell ref="AT13"/>
+    <mergeCell ref="AO12"/>
+    <mergeCell ref="AO13"/>
+    <mergeCell ref="AP12"/>
+    <mergeCell ref="AP13"/>
+    <mergeCell ref="AQ12"/>
+    <mergeCell ref="AQ13"/>
+    <mergeCell ref="AR12"/>
+    <mergeCell ref="AR13"/>
+    <mergeCell ref="AS12"/>
+    <mergeCell ref="AS13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -32036,139 +32349,139 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="R11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="31" t="s">
+      <c r="U11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="V11" s="31" t="s">
+      <c r="V11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="W11" s="31" t="s">
+      <c r="W11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="X11" s="31" t="s">
+      <c r="X11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="31" t="s">
+      <c r="Y11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="31" t="s">
+      <c r="Z11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="31" t="s">
+      <c r="AA11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AB11" s="31" t="s">
+      <c r="AB11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AC11" s="31" t="s">
+      <c r="AC11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AD11" s="31" t="s">
+      <c r="AD11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AE11" s="31" t="s">
+      <c r="AE11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AF11" s="31" t="s">
+      <c r="AF11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AG11" s="31" t="s">
+      <c r="AG11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="31" t="s">
+      <c r="AH11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" s="31" t="s">
+      <c r="AI11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AJ11" s="31" t="s">
+      <c r="AJ11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AK11" s="31" t="s">
+      <c r="AK11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AL11" s="31" t="s">
+      <c r="AL11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AM11" s="31" t="s">
+      <c r="AM11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AN11" s="31" t="s">
+      <c r="AN11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AO11" s="31" t="s">
+      <c r="AO11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AP11" s="31" t="s">
+      <c r="AP11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AQ11" s="31" t="s">
+      <c r="AQ11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AR11" s="31" t="s">
+      <c r="AR11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AS11" s="31" t="s">
+      <c r="AS11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AT11" s="31" t="s">
+      <c r="AT11" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -32176,139 +32489,139 @@
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>44651</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>44469</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>44286</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>44104</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>43921</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="31">
         <v>43738</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <v>43555</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="31">
         <v>43373</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="31">
         <v>43190</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="31">
         <v>43008</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="31">
         <v>42825</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="31">
         <v>42643</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="31">
         <v>42460</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="31">
         <v>42277</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="31">
         <v>42094</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="31">
         <v>41912</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="31">
         <v>41729</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="31">
         <v>41547</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="31">
         <v>41364</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="31">
         <v>41182</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="31">
         <v>40999</v>
       </c>
-      <c r="W12" s="32">
+      <c r="W12" s="31">
         <v>40816</v>
       </c>
-      <c r="X12" s="32">
+      <c r="X12" s="31">
         <v>40633</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="31">
         <v>40451</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="Z12" s="31">
         <v>40268</v>
       </c>
-      <c r="AA12" s="32">
+      <c r="AA12" s="31">
         <v>40086</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AB12" s="31">
         <v>39903</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC12" s="31">
         <v>39721</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD12" s="31">
         <v>39538</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AE12" s="31">
         <v>39355</v>
       </c>
-      <c r="AF12" s="32">
+      <c r="AF12" s="31">
         <v>39172</v>
       </c>
-      <c r="AG12" s="32">
+      <c r="AG12" s="31">
         <v>38990</v>
       </c>
-      <c r="AH12" s="32">
+      <c r="AH12" s="31">
         <v>38807</v>
       </c>
-      <c r="AI12" s="32">
+      <c r="AI12" s="31">
         <v>38625</v>
       </c>
-      <c r="AJ12" s="32">
+      <c r="AJ12" s="31">
         <v>38442</v>
       </c>
-      <c r="AK12" s="32">
+      <c r="AK12" s="31">
         <v>38260</v>
       </c>
-      <c r="AL12" s="32">
+      <c r="AL12" s="31">
         <v>38077</v>
       </c>
-      <c r="AM12" s="32">
+      <c r="AM12" s="31">
         <v>37894</v>
       </c>
-      <c r="AN12" s="32">
+      <c r="AN12" s="31">
         <v>37711</v>
       </c>
-      <c r="AO12" s="32">
+      <c r="AO12" s="31">
         <v>37529</v>
       </c>
-      <c r="AP12" s="32">
+      <c r="AP12" s="31">
         <v>37346</v>
       </c>
-      <c r="AQ12" s="32">
+      <c r="AQ12" s="31">
         <v>37164</v>
       </c>
-      <c r="AR12" s="32">
+      <c r="AR12" s="31">
         <v>36981</v>
       </c>
-      <c r="AS12" s="32">
+      <c r="AS12" s="31">
         <v>36799</v>
       </c>
-      <c r="AT12" s="32">
+      <c r="AT12" s="31">
         <v>36616</v>
       </c>
     </row>
@@ -32316,139 +32629,139 @@
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="32" t="s">
+      <c r="O13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="32" t="s">
+      <c r="S13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="T13" s="32" t="s">
+      <c r="T13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="U13" s="32" t="s">
+      <c r="U13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="32" t="s">
+      <c r="V13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="W13" s="32" t="s">
+      <c r="W13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="X13" s="32" t="s">
+      <c r="X13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" s="32" t="s">
+      <c r="Y13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AA13" s="32" t="s">
+      <c r="AA13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AB13" s="32" t="s">
+      <c r="AB13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AC13" s="32" t="s">
+      <c r="AC13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AD13" s="32" t="s">
+      <c r="AD13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AE13" s="32" t="s">
+      <c r="AE13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AF13" s="32" t="s">
+      <c r="AF13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AG13" s="32" t="s">
+      <c r="AG13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AH13" s="32" t="s">
+      <c r="AH13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AI13" s="32" t="s">
+      <c r="AI13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AJ13" s="32" t="s">
+      <c r="AJ13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AK13" s="32" t="s">
+      <c r="AK13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AL13" s="32" t="s">
+      <c r="AL13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AM13" s="32" t="s">
+      <c r="AM13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AN13" s="32" t="s">
+      <c r="AN13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AO13" s="32" t="s">
+      <c r="AO13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AP13" s="32" t="s">
+      <c r="AP13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AQ13" s="32" t="s">
+      <c r="AQ13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AR13" s="32" t="s">
+      <c r="AR13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AS13" s="32" t="s">
+      <c r="AS13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AT13" s="32" t="s">
+      <c r="AT13" s="31" t="s">
         <v>42</v>
       </c>
     </row>
@@ -46006,77 +46319,24 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="AT12"/>
-    <mergeCell ref="AT13"/>
-    <mergeCell ref="AO12"/>
-    <mergeCell ref="AO13"/>
-    <mergeCell ref="AP12"/>
-    <mergeCell ref="AP13"/>
-    <mergeCell ref="AQ12"/>
-    <mergeCell ref="AQ13"/>
-    <mergeCell ref="AR12"/>
-    <mergeCell ref="AR13"/>
-    <mergeCell ref="AS12"/>
-    <mergeCell ref="AS13"/>
-    <mergeCell ref="AJ12"/>
-    <mergeCell ref="AJ13"/>
-    <mergeCell ref="AK12"/>
-    <mergeCell ref="AK13"/>
-    <mergeCell ref="AL12"/>
-    <mergeCell ref="AL13"/>
-    <mergeCell ref="AM12"/>
-    <mergeCell ref="AM13"/>
-    <mergeCell ref="AN12"/>
-    <mergeCell ref="AN13"/>
-    <mergeCell ref="AE12"/>
-    <mergeCell ref="AE13"/>
-    <mergeCell ref="AF12"/>
-    <mergeCell ref="AF13"/>
-    <mergeCell ref="AG12"/>
-    <mergeCell ref="AG13"/>
-    <mergeCell ref="AH12"/>
-    <mergeCell ref="AH13"/>
-    <mergeCell ref="AI12"/>
-    <mergeCell ref="AI13"/>
-    <mergeCell ref="Z12"/>
-    <mergeCell ref="Z13"/>
-    <mergeCell ref="AA12"/>
-    <mergeCell ref="AA13"/>
-    <mergeCell ref="AB12"/>
-    <mergeCell ref="AB13"/>
-    <mergeCell ref="AC12"/>
-    <mergeCell ref="AC13"/>
-    <mergeCell ref="AD12"/>
-    <mergeCell ref="AD13"/>
-    <mergeCell ref="U12"/>
-    <mergeCell ref="U13"/>
-    <mergeCell ref="V12"/>
-    <mergeCell ref="V13"/>
-    <mergeCell ref="W12"/>
-    <mergeCell ref="W13"/>
-    <mergeCell ref="X12"/>
-    <mergeCell ref="X13"/>
-    <mergeCell ref="Y12"/>
-    <mergeCell ref="Y13"/>
-    <mergeCell ref="P12"/>
-    <mergeCell ref="P13"/>
-    <mergeCell ref="Q12"/>
-    <mergeCell ref="Q13"/>
-    <mergeCell ref="R12"/>
-    <mergeCell ref="R13"/>
-    <mergeCell ref="S12"/>
-    <mergeCell ref="S13"/>
-    <mergeCell ref="T12"/>
-    <mergeCell ref="T13"/>
-    <mergeCell ref="K13"/>
-    <mergeCell ref="L12"/>
-    <mergeCell ref="L13"/>
-    <mergeCell ref="M12"/>
-    <mergeCell ref="M13"/>
-    <mergeCell ref="N12"/>
-    <mergeCell ref="N13"/>
-    <mergeCell ref="O12"/>
-    <mergeCell ref="O13"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AK11:AL11"/>
     <mergeCell ref="AM11:AN11"/>
     <mergeCell ref="AO11:AP11"/>
@@ -46101,24 +46361,77 @@
     <mergeCell ref="J12"/>
     <mergeCell ref="J13"/>
     <mergeCell ref="K12"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="N12"/>
+    <mergeCell ref="N13"/>
+    <mergeCell ref="O12"/>
+    <mergeCell ref="O13"/>
+    <mergeCell ref="P12"/>
+    <mergeCell ref="P13"/>
+    <mergeCell ref="Q12"/>
+    <mergeCell ref="Q13"/>
+    <mergeCell ref="R12"/>
+    <mergeCell ref="R13"/>
+    <mergeCell ref="S12"/>
+    <mergeCell ref="S13"/>
+    <mergeCell ref="T12"/>
+    <mergeCell ref="T13"/>
+    <mergeCell ref="U12"/>
+    <mergeCell ref="U13"/>
+    <mergeCell ref="V12"/>
+    <mergeCell ref="V13"/>
+    <mergeCell ref="W12"/>
+    <mergeCell ref="W13"/>
+    <mergeCell ref="X12"/>
+    <mergeCell ref="X13"/>
+    <mergeCell ref="Y12"/>
+    <mergeCell ref="Y13"/>
+    <mergeCell ref="Z12"/>
+    <mergeCell ref="Z13"/>
+    <mergeCell ref="AA12"/>
+    <mergeCell ref="AA13"/>
+    <mergeCell ref="AB12"/>
+    <mergeCell ref="AB13"/>
+    <mergeCell ref="AC12"/>
+    <mergeCell ref="AC13"/>
+    <mergeCell ref="AD12"/>
+    <mergeCell ref="AD13"/>
+    <mergeCell ref="AE12"/>
+    <mergeCell ref="AE13"/>
+    <mergeCell ref="AF12"/>
+    <mergeCell ref="AF13"/>
+    <mergeCell ref="AG12"/>
+    <mergeCell ref="AG13"/>
+    <mergeCell ref="AH12"/>
+    <mergeCell ref="AH13"/>
+    <mergeCell ref="AI12"/>
+    <mergeCell ref="AI13"/>
+    <mergeCell ref="AJ12"/>
+    <mergeCell ref="AJ13"/>
+    <mergeCell ref="AK12"/>
+    <mergeCell ref="AK13"/>
+    <mergeCell ref="AL12"/>
+    <mergeCell ref="AL13"/>
+    <mergeCell ref="AM12"/>
+    <mergeCell ref="AM13"/>
+    <mergeCell ref="AN12"/>
+    <mergeCell ref="AN13"/>
+    <mergeCell ref="AT12"/>
+    <mergeCell ref="AT13"/>
+    <mergeCell ref="AO12"/>
+    <mergeCell ref="AO13"/>
+    <mergeCell ref="AP12"/>
+    <mergeCell ref="AP13"/>
+    <mergeCell ref="AQ12"/>
+    <mergeCell ref="AQ13"/>
+    <mergeCell ref="AR12"/>
+    <mergeCell ref="AR13"/>
+    <mergeCell ref="AS12"/>
+    <mergeCell ref="AS13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
